--- a/financial_files/excel/ADBE.xlsx
+++ b/financial_files/excel/ADBE.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data" ref="A1:O114" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data_scraped" ref="A1:O114" headerRowCount="1">
   <autoFilter ref="A1:O114"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Category"/>

--- a/financial_files/excel/ADBE.xlsx
+++ b/financial_files/excel/ADBE.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_statement_api" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rule1_results" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -156,6 +158,47 @@
     <tableColumn id="13" name="2019"/>
     <tableColumn id="14" name="2020"/>
     <tableColumn id="15" name="TTM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="financial_statement_api" displayName="financial_statement_api" ref="A1:U23" headerRowCount="1">
+  <autoFilter ref="A1:U23"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="API Parameter"/>
+    <tableColumn id="2" name="2001"/>
+    <tableColumn id="3" name="2002"/>
+    <tableColumn id="4" name="2003"/>
+    <tableColumn id="5" name="2004"/>
+    <tableColumn id="6" name="2005"/>
+    <tableColumn id="7" name="2006"/>
+    <tableColumn id="8" name="2007"/>
+    <tableColumn id="9" name="2008"/>
+    <tableColumn id="10" name="2009"/>
+    <tableColumn id="11" name="2010"/>
+    <tableColumn id="12" name="2011"/>
+    <tableColumn id="13" name="2012"/>
+    <tableColumn id="14" name="2013"/>
+    <tableColumn id="15" name="2014"/>
+    <tableColumn id="16" name="2015"/>
+    <tableColumn id="17" name="2016"/>
+    <tableColumn id="18" name="2017"/>
+    <tableColumn id="19" name="2018"/>
+    <tableColumn id="20" name="2019"/>
+    <tableColumn id="21" name="2020"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rule1_results" displayName="rule1_results" ref="A1:B55" headerRowCount="1">
+  <autoFilter ref="A1:B55"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Rule #1 Metric"/>
+    <tableColumn id="2" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6769,4 +6812,2255 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>API Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1229720000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1164788000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1294749000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1666581000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1966321000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2575300000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3157881000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3579889000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2945853000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3800000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4216258000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4403677000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4055240000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4147065000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4795511000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5854430000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7301505000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>9030008000</v>
+      </c>
+      <c r="T2" t="n">
+        <v>11171297000</v>
+      </c>
+      <c r="U2" t="n">
+        <v>12868000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>operating_income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>390520000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>304944000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>378903000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>591794000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>728434000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>571026000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>858140000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1060324000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>731773000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1016340000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1197072000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1177274000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>449220000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>432568000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>903095000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1493602000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2168095000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2840369000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3268121000</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4237000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pretax_income</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>306931000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>284689000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>380492000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>608645000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>765776000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>679727000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>947190000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1078508000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>701520000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>943151000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1035230000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1118794000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>356141000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>361376000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>873781000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1435138000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2137641000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2793876000</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3204741000</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4176000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>income_tax</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-101287000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-93290000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-114148000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-158247000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-162937000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-173918000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-223383000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-206694000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-315012000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-168471000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-202383000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-286019000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-66156000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-92981000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-244230000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-266356000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-443687000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-203102000</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-253283000</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1084000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>eps_diluted</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U6" t="n">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shares_diluted</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>498290000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>486238000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>482900000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>494943000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>506587000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>612222000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>598775000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>548553000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>530610000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>525824000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>503921000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>502721000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>513476000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>508480000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>507164000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>504299000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>501123000</v>
+      </c>
+      <c r="S7" t="n">
+        <v>497843000</v>
+      </c>
+      <c r="T7" t="n">
+        <v>491572000</v>
+      </c>
+      <c r="U7" t="n">
+        <v>485000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>930623000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1051610000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1555045000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1958632000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2440315000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5962548000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5713679000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5821598000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7282237000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8141148000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8991183000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10040229000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10380298000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>10785829000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>11726472000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>12697246000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>14535556000</v>
+      </c>
+      <c r="S8" t="n">
+        <v>18768682000</v>
+      </c>
+      <c r="T8" t="n">
+        <v>20762400000</v>
+      </c>
+      <c r="U8" t="n">
+        <v>24284000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>st_debt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>14676000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>599960000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3149343000</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lt_debt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>350000000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1513662000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1494627000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1495312000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1496028000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>911086000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1907231000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1892200000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1881421000</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4124800000</v>
+      </c>
+      <c r="T10" t="n">
+        <v>988924000</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4117000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>616972000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>674321000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1100800000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1423477000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1864326000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5151876000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4649982000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4410354000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4890568000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5192387000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5783113000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6665182000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6724634000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6775905000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>7001580000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7424835000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>8459869000</v>
+      </c>
+      <c r="S11" t="n">
+        <v>9362114000</v>
+      </c>
+      <c r="T11" t="n">
+        <v>10530155000</v>
+      </c>
+      <c r="U11" t="n">
+        <v>13264000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cf_cfo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>418702000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>329331000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>433136000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>704803000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>758389000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>927239000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1439303000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1280682000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1117794000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1112995000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1543314000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1499580000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1151686000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1287482000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1469502000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2199728000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2912853000</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4029304000</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4421813000</v>
+      </c>
+      <c r="U12" t="n">
+        <v>5727000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cfi_ppe_net</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-46556000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-31578000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-39454000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-57293000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-48875000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-83250000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-132075000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-111792000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-119592000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-137491000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-210294000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-271076000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-164098000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-148332000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-127157000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-203805000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-178122000</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-266579000</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-394479000</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-419000000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>roic</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4499</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4306</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.4623</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1737</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2301</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0881</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1359</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.1277</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0368</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0828</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.2073</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.2606</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.2473</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.4138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>revenue_growth</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.0289</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.0528</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1115</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2871</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1798</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3097</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.2262</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1336</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.1771</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2899</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.1095</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0444</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.0791</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.0226</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.1563</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.2208</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.2471</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.2367</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.2371</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.1518</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>eps_diluted_growth</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.2654</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.0481</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.3924</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6545</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3076</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.3025</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4578</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.5407999999999999</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.0136</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.1224</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.6626</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.0535</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.3396</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.8709</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.4568</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.5384</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.1538</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.805</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>total_equity_growth</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.1801</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0929</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6324</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2931</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3096</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.7633</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.0974</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.0515</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1088</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0617</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.1137</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0089</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0076</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0333</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.0604</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.1394</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.1066</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.1247</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.2596</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cfo_growth</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.0583</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.2134</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.3151</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6272</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.2226</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5522</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.1102</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.1271</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.0042</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.3866</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.0283</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.2319</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.1179</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.1413</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.4969</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.3241</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.3832</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.0974</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.2951</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fcf_growth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.1143</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.1999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.3221</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6447000000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.09569999999999999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1895</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5488</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.1058</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.146</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.0227</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3664</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.0784</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.1961</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.1534</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.1783</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.4868</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3701</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3759</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.0703</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.3179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fcf</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>372146000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>297753000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>393682000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>647510000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>709514000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>843989000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1307228000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1168890000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>998202000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>975504000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1333020000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1228504000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>987588000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1139150000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1342345000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1995923000</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2734731000</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3762725000</v>
+      </c>
+      <c r="T20" t="n">
+        <v>4027334000</v>
+      </c>
+      <c r="U20" t="n">
+        <v>5308000000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>book_value_per_share</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.2381</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.3868</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.2795</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.876</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.6801</v>
+      </c>
+      <c r="G21" t="n">
+        <v>8.414999999999999</v>
+      </c>
+      <c r="H21" t="n">
+        <v>7.7658</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8.039899999999999</v>
+      </c>
+      <c r="J21" t="n">
+        <v>9.216799999999999</v>
+      </c>
+      <c r="K21" t="n">
+        <v>9.874700000000001</v>
+      </c>
+      <c r="L21" t="n">
+        <v>11.4762</v>
+      </c>
+      <c r="M21" t="n">
+        <v>13.2582</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13.0962</v>
+      </c>
+      <c r="O21" t="n">
+        <v>13.3258</v>
+      </c>
+      <c r="P21" t="n">
+        <v>13.8053</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>14.723</v>
+      </c>
+      <c r="R21" t="n">
+        <v>16.8818</v>
+      </c>
+      <c r="S21" t="n">
+        <v>18.8053</v>
+      </c>
+      <c r="T21" t="n">
+        <v>21.4213</v>
+      </c>
+      <c r="U21" t="n">
+        <v>27.3484</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>market_cap</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7547887620</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6851950700</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9853539080</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14788782280</v>
+      </c>
+      <c r="F22" t="n">
+        <v>19289728080</v>
+      </c>
+      <c r="G22" t="n">
+        <v>23582996160</v>
+      </c>
+      <c r="H22" t="n">
+        <v>24079175260</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12184730760</v>
+      </c>
+      <c r="J22" t="n">
+        <v>18334807560</v>
+      </c>
+      <c r="K22" t="n">
+        <v>13952736600</v>
+      </c>
+      <c r="L22" t="n">
+        <v>13478026800</v>
+      </c>
+      <c r="M22" t="n">
+        <v>17101908520</v>
+      </c>
+      <c r="N22" t="n">
+        <v>28177699580</v>
+      </c>
+      <c r="O22" t="n">
+        <v>36654621120</v>
+      </c>
+      <c r="P22" t="n">
+        <v>45529611140</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>50814253740</v>
+      </c>
+      <c r="R22" t="n">
+        <v>86879684700</v>
+      </c>
+      <c r="S22" t="n">
+        <v>122349770070</v>
+      </c>
+      <c r="T22" t="n">
+        <v>149298390670</v>
+      </c>
+      <c r="U22" t="n">
+        <v>232057950000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>price_to_earnings</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>36.7036</v>
+      </c>
+      <c r="C23" t="n">
+        <v>35.7993</v>
+      </c>
+      <c r="D23" t="n">
+        <v>36.9955</v>
+      </c>
+      <c r="E23" t="n">
+        <v>32.8349</v>
+      </c>
+      <c r="F23" t="n">
+        <v>31.9981</v>
+      </c>
+      <c r="G23" t="n">
+        <v>46.6243</v>
+      </c>
+      <c r="H23" t="n">
+        <v>33.2673</v>
+      </c>
+      <c r="I23" t="n">
+        <v>13.9762</v>
+      </c>
+      <c r="J23" t="n">
+        <v>47.437</v>
+      </c>
+      <c r="K23" t="n">
+        <v>18.0109</v>
+      </c>
+      <c r="L23" t="n">
+        <v>16.183</v>
+      </c>
+      <c r="M23" t="n">
+        <v>20.536</v>
+      </c>
+      <c r="N23" t="n">
+        <v>97.1695</v>
+      </c>
+      <c r="O23" t="n">
+        <v>136.5696</v>
+      </c>
+      <c r="P23" t="n">
+        <v>72.3207</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>43.4762</v>
+      </c>
+      <c r="R23" t="n">
+        <v>51.2881</v>
+      </c>
+      <c r="S23" t="n">
+        <v>47.2251</v>
+      </c>
+      <c r="T23" t="n">
+        <v>50.5846</v>
+      </c>
+      <c r="U23" t="n">
+        <v>44.1174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rule #1 Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROIC - 10-year</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12.74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ROIC - 5-year</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>17.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ROIC - 3-year</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>19.37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ROIC - 1-year</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>18.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 10-year</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>16.96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 5-year</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>25.44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 3-year</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>30.72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 1-year</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>41.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>10.72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>14.65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>17.45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>27.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>22.10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>54.26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>47.42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>80.50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>12.97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>21.82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20.79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>15.19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>18.46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>31.65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>24.74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>31.80%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>17.80%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>31.27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>25.28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>29.52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Debt - Current Long-Term Debt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4117000000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Debt - Payoff Possible</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>current_eps</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>10.83000010443071</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>analyst_growth_rate</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1667</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>equity_growth_rate</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1762240981660259</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eps_growth_rate</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1667</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>future_eps</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>50.60814739951034</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>average_historical_pe</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>57.94701999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>default_pe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>33.34</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>future_pe</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>33.34</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>future_market_price</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1687.275634299675</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sticker_price</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>417.06873181095</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>margin_of_safety</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>208.534365905475</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Adobe Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ADBE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Software—Infrastructure</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>http://www.adobe.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>marketCap</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>232826814464</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3378762</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>forwardPE</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>36.684807</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>previousClose</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>500.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>